--- a/docs/backlogs-2022-10.xlsx
+++ b/docs/backlogs-2022-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E888B9A2-57A6-4A32-8D59-C2D45C4DD278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A3B20-B777-40A7-8EE9-79F6CA5D204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,15 +66,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,13 +405,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -448,13 +448,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>44848</v>
+      </c>
+      <c r="G2" s="1">
+        <v>44851</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -465,10 +468,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44851</v>
       </c>
     </row>
   </sheetData>

--- a/docs/backlogs-2022-10.xlsx
+++ b/docs/backlogs-2022-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69A3B20-B777-40A7-8EE9-79F6CA5D204D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA9BB7-5877-421A-B499-39820795E665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>이슈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,46 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 미구현. 폐기(Discard) 기능 추가할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 미구현. 폐업(Close) 기능 추가할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 등록할 약국 데이터 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자 업종 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블레이저 UI 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누락된 디자인 요소 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,17 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
     <col min="6" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -448,16 +486,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>44848</v>
       </c>
       <c r="G2" s="1">
         <v>44851</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -468,12 +509,72 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
+        <v>44851</v>
+      </c>
+      <c r="G3" s="1">
+        <v>44851</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
         <v>44851</v>
       </c>
     </row>

--- a/docs/backlogs-2022-10.xlsx
+++ b/docs/backlogs-2022-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA9BB7-5877-421A-B499-39820795E665}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A3989-267F-46BD-B507-C7A278805025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>이슈</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,22 @@
   </si>
   <si>
     <t>누락된 디자인 요소 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소/제품 이미지 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 직접 이미지 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,11 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -578,6 +594,23 @@
         <v>44851</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
